--- a/medicine/Mort/Cimetière_d'Honkanummi/Cimetière_d'Honkanummi.xlsx
+++ b/medicine/Mort/Cimetière_d'Honkanummi/Cimetière_d'Honkanummi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Honkanummi</t>
+          <t>Cimetière_d'Honkanummi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière d'Honkanummi (finnois : Honkanummen hautausmaa)  est un cimetière de l'association paroissiale d'Helsinki situé dans le quartier d'Hakkila à Vantaa en Finlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière d'Honkanummi (finnois : Honkanummen hautausmaa)  est un cimetière de l'association paroissiale d'Helsinki situé dans le quartier d'Hakkila à Vantaa en Finlande.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Honkanummi</t>
+          <t>Cimetière_d'Honkanummi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière est inauguré en 1951, et le premier enterrement a eu lieu en janvier 1957[2].
-Le cimetière a une superficie d'environ 76 hectares et a été conçu par les architectes Aili et Niilo Pulkka[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière est inauguré en 1951, et le premier enterrement a eu lieu en janvier 1957.
+Le cimetière a une superficie d'environ 76 hectares et a été conçu par les architectes Aili et Niilo Pulkka.
 Il est situé dans le quartier d'Hakkila à Vantaa, des deux côtés de la Vanha Porvoontie, et sa distance du centre d'Helsinki est d'environ 18 kilomètres.
 Les chapelle funéraires conçues par l'architecte Erik Bryggman sont construites en 1955. 
 Un crématorium est ouvert en 1991 en lien avec la chapelle.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Honkanummi</t>
+          <t>Cimetière_d'Honkanummi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les personnalités enterrées au cimetière sont[3]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les personnalités enterrées au cimetière sont:
 Väinö Bremer, médaillé olympique
 Georg C. Ehrnrooth, homme politique
 Reino Helismaa, parolier, chanteur
